--- a/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>BTTR</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,73 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43343</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43251</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43159</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43069</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3600</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -741,28 +744,31 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="3">
         <v>3100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1700</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -770,28 +776,31 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1900</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -799,8 +808,11 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +886,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2600</v>
+        <v>900</v>
       </c>
       <c r="E14" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F14" s="3">
         <v>150000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +950,11 @@
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +963,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>16700</v>
       </c>
       <c r="E17" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F17" s="3">
         <v>165300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>-12700</v>
       </c>
       <c r="E18" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-161200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,45 +1041,49 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>-1000</v>
       </c>
       <c r="E20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-6000</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
@@ -1058,75 +1094,84 @@
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
+      <c r="D23" s="3">
+        <v>-14200</v>
       </c>
       <c r="E23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-161500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1199,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1231,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>-14200</v>
       </c>
       <c r="E26" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-161500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>-14200</v>
       </c>
       <c r="E27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-161500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1284,23 +1344,26 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
         <v>15700</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-17500</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1423,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>1000</v>
       </c>
       <c r="E32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>-14200</v>
       </c>
       <c r="E33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-161500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1519,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>-14200</v>
       </c>
       <c r="E35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-161500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43343</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43251</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43159</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43069</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1618,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E41" s="3">
         <v>2800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5000</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>300</v>
       </c>
       <c r="I41" s="3">
         <v>300</v>
       </c>
       <c r="J41" s="3">
+        <v>300</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,19 +1680,22 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>5800</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
+      <c r="F43" s="3">
+        <v>300</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>5</v>
@@ -1614,28 +1706,31 @@
       <c r="I43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E44" s="3">
         <v>2400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1700</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -1649,66 +1744,75 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E45" s="3">
         <v>8200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7400</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E46" s="3">
         <v>13600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14400</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>300</v>
       </c>
       <c r="I46" s="3">
         <v>300</v>
       </c>
       <c r="J46" s="3">
+        <v>300</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,20 +1840,23 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="E48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F48" s="3">
         <v>900</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
@@ -1759,26 +1866,29 @@
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E49" s="3">
         <v>900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
@@ -1794,8 +1904,11 @@
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,20 +1968,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E52" s="3">
         <v>1700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
@@ -1881,8 +2000,11 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2032,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E54" s="3">
         <v>17200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16500</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
         <v>200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>300</v>
       </c>
       <c r="I54" s="3">
         <v>300</v>
       </c>
       <c r="J54" s="3">
+        <v>300</v>
+      </c>
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,22 +2094,23 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -1994,100 +2124,112 @@
       <c r="K57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6200</v>
+        <v>20900</v>
       </c>
       <c r="E58" s="3">
         <v>6200</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="F58" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E59" s="3">
         <v>5600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5100</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
         <v>2500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13800</v>
+        <v>33000</v>
       </c>
       <c r="E60" s="3">
         <v>13800</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="F60" s="3">
+        <v>13800</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
         <v>2900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>16400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2110,8 +2252,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2121,8 +2266,8 @@
       <c r="E62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
+      <c r="F62" s="3">
+        <v>600</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>5</v>
@@ -2139,8 +2284,11 @@
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2380,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E66" s="3">
         <v>14500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14400</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
         <v>2900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,19 +2490,22 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>10600</v>
       </c>
       <c r="E70" s="3">
         <v>13000</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2355,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2554,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-201300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-187100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-181000</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
         <v>-6100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2682,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-11000</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="G76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
         <v>-2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-19400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-1200</v>
       </c>
       <c r="K76" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2746,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43343</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43251</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43159</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43069</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>-14200</v>
       </c>
       <c r="E81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-161500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,16 +2831,17 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>5</v>
@@ -2660,11 +2858,14 @@
       <c r="J83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3021,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4700</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,16 +3069,17 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>5</v>
@@ -2879,8 +3099,11 @@
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,17 +3163,20 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1500</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
@@ -2957,8 +3186,8 @@
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -2966,8 +3195,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3337,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E100" s="3">
         <v>4000</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3401,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2300</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>BTTR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,79 +665,87 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43343</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43251</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43159</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43069</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F8" s="3">
         <v>4000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3600</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -747,72 +755,90 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F9" s="3">
         <v>2500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>3100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1700</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F10" s="3">
         <v>1500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1900</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +851,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,8 +885,14 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,63 +923,75 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-2600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>150000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>5</v>
@@ -953,8 +999,14 @@
       <c r="L15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,72 +1016,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20800</v>
+      </c>
+      <c r="F17" s="3">
         <v>16700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>11000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>165300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>-800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-12700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-7100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-161200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,136 +1108,162 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-13600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-6000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="H21" s="3">
+        <v>-161400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-14200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-6000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-161500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1202,8 +1294,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-14200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-6000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-161500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-14200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-6100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-161500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1347,23 +1469,29 @@
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
         <v>15700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-17500</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,72 +1560,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-14200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-6100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-161500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>16700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-18000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-14200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-6100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-161500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>16700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-18000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43343</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43251</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43159</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43069</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,40 +1791,48 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F41" s="3">
         <v>2400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>5000</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,60 +1863,72 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F43" s="3">
         <v>5800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F44" s="3">
         <v>6600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1700</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -1747,72 +1939,90 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F45" s="3">
         <v>2800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>8200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>7400</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F46" s="3">
         <v>17600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>13600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>14400</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1843,58 +2053,70 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>32900</v>
+      </c>
+      <c r="F49" s="3">
         <v>33300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
@@ -1907,8 +2129,14 @@
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,26 +2205,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2003,8 +2243,14 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,40 +2281,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>51000</v>
+      </c>
+      <c r="F54" s="3">
         <v>53500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>17200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>16500</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,8 +2355,10 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2104,19 +2366,19 @@
         <v>4000</v>
       </c>
       <c r="E57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -2127,116 +2389,140 @@
       <c r="L57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>22400</v>
+      </c>
+      <c r="F58" s="3">
         <v>20900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>6200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>6200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F59" s="3">
         <v>8100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>5100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>2500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>19600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>32900</v>
+      </c>
+      <c r="F60" s="3">
         <v>33000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>13800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>13800</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
         <v>2900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>19700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F61" s="3">
         <v>16400</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2255,13 +2541,19 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
         <v>600</v>
@@ -2269,11 +2561,11 @@
       <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
+      <c r="G62" s="3">
+        <v>600</v>
+      </c>
+      <c r="H62" s="3">
+        <v>600</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
@@ -2287,8 +2579,14 @@
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,40 +2693,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>51000</v>
+      </c>
+      <c r="F66" s="3">
         <v>50000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>14500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>14400</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
         <v>2900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>19700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2502,17 +2838,17 @@
         <v>10600</v>
       </c>
       <c r="E70" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F70" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G70" s="3">
         <v>13000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>13000</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2525,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,40 +2899,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-229200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-210800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-201300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-187100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-181000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>-6100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-22800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,40 +3051,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-7100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-10300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-11000</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3">
         <v>-2700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-19400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43343</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43251</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43159</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43069</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-14200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-6100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-161500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>16700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-18000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,28 +3228,30 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
@@ -2861,11 +3259,17 @@
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,40 +3452,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-7700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-4700</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H89" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,22 +3510,24 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
@@ -3102,8 +3544,14 @@
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,40 +3620,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-20600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1500</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="H94" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,40 +3826,52 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
         <v>21800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>4000</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>14700</v>
       </c>
       <c r="I100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,36 +3902,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-6500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2300</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H102" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>BTTR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,94 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E8" s="3">
         <v>9900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3600</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -761,37 +765,40 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E9" s="3">
         <v>5800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1700</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="L9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -799,37 +806,40 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>4100</v>
+        <v>4400</v>
       </c>
       <c r="E10" s="3">
         <v>4100</v>
       </c>
       <c r="F10" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G10" s="3">
         <v>1500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1900</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -837,8 +847,11 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,46 +946,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-2600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>150000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -993,8 +1016,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>5</v>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E17" s="3">
         <v>22400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>165300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-161200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,160 +1143,173 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-15600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-161400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="3">
         <v>2400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-161500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-161500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-18400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-161500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1475,23 +1536,26 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>15700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-17500</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E32" s="3">
         <v>3400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-18400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-161500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-18400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-161500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>3500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>300</v>
       </c>
       <c r="L41" s="3">
         <v>300</v>
       </c>
       <c r="M41" s="3">
+        <v>300</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,28 +1959,31 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E43" s="3">
         <v>4200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5800</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
+      <c r="I43" s="3">
+        <v>300</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -1901,37 +1994,40 @@
       <c r="L43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E44" s="3">
         <v>5400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1700</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1945,84 +2041,93 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E45" s="3">
         <v>3300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E46" s="3">
         <v>16400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>17600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>300</v>
       </c>
       <c r="L46" s="3">
         <v>300</v>
       </c>
       <c r="M46" s="3">
+        <v>300</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,29 +2164,32 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>900</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2091,35 +2199,38 @@
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E49" s="3">
         <v>32500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>32900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>33300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,29 +2328,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="3">
         <v>700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E54" s="3">
         <v>50700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>51000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>53500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16500</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
-      </c>
-      <c r="K54" s="3">
-        <v>300</v>
       </c>
       <c r="L54" s="3">
         <v>300</v>
       </c>
       <c r="M54" s="3">
+        <v>300</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,31 +2487,32 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -2395,137 +2526,149 @@
       <c r="N57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E58" s="3">
         <v>24200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>22400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>20900</v>
-      </c>
-      <c r="G58" s="3">
-        <v>6200</v>
       </c>
       <c r="H58" s="3">
         <v>6200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="I58" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E59" s="3">
         <v>10000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>2500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E60" s="3">
         <v>38200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>32900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>13800</v>
       </c>
       <c r="H60" s="3">
         <v>13800</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="I60" s="3">
+        <v>13800</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>2900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E61" s="3">
         <v>18100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>17600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2547,16 +2690,19 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
-      </c>
-      <c r="E62" s="3">
-        <v>600</v>
       </c>
       <c r="F62" s="3">
         <v>600</v>
@@ -2567,8 +2713,8 @@
       <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+      <c r="I62" s="3">
+        <v>600</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E66" s="3">
         <v>56800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>51000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>50000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14400</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>2900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2844,13 +3012,13 @@
         <v>10600</v>
       </c>
       <c r="G70" s="3">
-        <v>13000</v>
+        <v>10600</v>
       </c>
       <c r="H70" s="3">
         <v>13000</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-230900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-229200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-210800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-201300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-187100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-181000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>-6100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-22800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,8 +3240,11 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3066,37 +3252,40 @@
         <v>-16600</v>
       </c>
       <c r="E76" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-10700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-7100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-10300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-11000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>-2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-19400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-1200</v>
       </c>
       <c r="N76" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-18400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-161500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3239,22 +3438,22 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
+        <v>400</v>
+      </c>
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3265,11 +3464,14 @@
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3524,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3638,25 +3868,25 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-20600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1900</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>21800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>14700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>BTTR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,107 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F8" s="3">
         <v>11100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>9900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>12200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3600</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -768,90 +775,108 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F9" s="3">
         <v>6700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>5800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>8100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>3100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1700</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F10" s="3">
         <v>4400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>4100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>4100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1900</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +892,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +935,14 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,49 +982,61 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-2600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>150000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1019,11 +1064,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>5</v>
@@ -1031,8 +1076,14 @@
       <c r="O15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1096,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F17" s="3">
         <v>14500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>22400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>20800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>16700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>11000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>165300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>-800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-12500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-8600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-12700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-7100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-161200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,172 +1209,198 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="F20" s="3">
         <v>4200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="F21" s="3">
         <v>1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-15600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-6700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-13600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-6000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-161400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F22" s="3">
         <v>2500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>2400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>2300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-18400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-9500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-14200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-6000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-161500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1440,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1487,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-18400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-9500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-14200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-6000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-161500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-18400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-9500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-14200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-6100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-161500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1628,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1539,23 +1660,29 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>15700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-17500</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1769,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-18400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-9500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-14200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-6100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-161500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>16700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-18000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1910,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-18400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-9500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-14200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-6100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-161500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>16700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-18000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +2051,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>5000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,78 +2141,90 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F43" s="3">
         <v>5600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>4200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>6100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>5800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F44" s="3">
         <v>5100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>5400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>4800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>6600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>2400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1700</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2044,90 +2235,108 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F45" s="3">
         <v>3500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>8200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>7400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F46" s="3">
         <v>14800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>16400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>15800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>17600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>13600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>14400</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,76 +2376,88 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>600</v>
+      </c>
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>31700</v>
+      </c>
+      <c r="F49" s="3">
         <v>32100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>32500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>32900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>33300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2249,8 +2470,14 @@
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,35 +2564,41 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F52" s="3">
         <v>1900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2372,8 +2611,14 @@
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2658,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>51300</v>
+      </c>
+      <c r="F54" s="3">
         <v>49800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>50700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>51000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>53500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>17200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>16500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,37 +2747,39 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F57" s="3">
         <v>4100</v>
-      </c>
-      <c r="E57" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>4200</v>
       </c>
       <c r="G57" s="3">
         <v>4000</v>
       </c>
       <c r="H57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
+      <c r="L57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -2529,152 +2790,176 @@
       <c r="O57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F58" s="3">
         <v>19800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>24200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>22400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>20900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>6200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>6200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>43400</v>
+      </c>
+      <c r="F59" s="3">
         <v>7900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>10000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>8100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>5600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>2500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>19600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>54600</v>
+      </c>
+      <c r="F60" s="3">
         <v>31800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>38200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>32900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>33000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>13800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>13800</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>2900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>19700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>24600</v>
+      </c>
+      <c r="F61" s="3">
         <v>23700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>18100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>17600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>16400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2693,22 +2978,28 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>200</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
-      </c>
-      <c r="F62" s="3">
-        <v>600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>600</v>
       </c>
       <c r="H62" s="3">
         <v>600</v>
@@ -2716,11 +3007,11 @@
       <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
+      <c r="J62" s="3">
+        <v>600</v>
+      </c>
+      <c r="K62" s="3">
+        <v>600</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
@@ -2734,8 +3025,14 @@
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3166,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>85300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>79400</v>
+      </c>
+      <c r="F66" s="3">
         <v>55800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>56800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>51000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>50000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>14500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>14400</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>2900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>19700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,16 +3326,22 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>10600</v>
@@ -3015,17 +3350,17 @@
         <v>10600</v>
       </c>
       <c r="H70" s="3">
+        <v>10600</v>
+      </c>
+      <c r="I70" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J70" s="3">
         <v>13000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>13000</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3038,8 +3373,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3420,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-273900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-260600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-230900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-229200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-210800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-201300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-187100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-181000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>-6100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-22800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3608,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-16600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-16600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-10700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-7100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-10300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-11000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>-2700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-19400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3702,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-18400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-9500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-14200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-6100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-161500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>16700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-18000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3824,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3438,28 +3835,28 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
+        <v>400</v>
+      </c>
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>5</v>
@@ -3467,11 +3864,17 @@
       <c r="N83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4102,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-7700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-4700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-7100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,31 +4172,33 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
@@ -3774,8 +4215,14 @@
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4309,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3865,40 +4324,46 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-20600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>1900</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4563,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>21800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>4000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>14700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4657,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-6500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>9400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>BTTR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,110 +665,114 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3600</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -781,46 +785,49 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E9" s="3">
         <v>6600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1700</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
+      <c r="O9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -828,46 +835,49 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E10" s="3">
         <v>4200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>4100</v>
       </c>
       <c r="H10" s="3">
         <v>4100</v>
       </c>
       <c r="I10" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J10" s="3">
         <v>1500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1900</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,55 +1005,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-2600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>150000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1070,8 +1093,8 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>5</v>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E17" s="3">
         <v>16400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>22400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>165300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-161200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,196 +1244,209 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-24800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-11600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-27400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-15600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-13600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-161400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>-1200</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-29800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-161500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-29800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-161500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-29800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-161500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1666,23 +1727,26 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>15700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-17500</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E32" s="3">
         <v>6500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>24800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-29800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-161500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-18000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-29800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-161500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-18000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E41" s="3">
         <v>4300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
-      </c>
-      <c r="N41" s="3">
-        <v>300</v>
       </c>
       <c r="O41" s="3">
         <v>300</v>
       </c>
       <c r="P41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,37 +2237,40 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E43" s="3">
         <v>6700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5800</v>
-      </c>
-      <c r="J43" s="3">
-        <v>300</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
+      <c r="L43" s="3">
+        <v>300</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>5</v>
@@ -2188,46 +2281,49 @@
       <c r="O43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E44" s="3">
         <v>4600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1700</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2241,102 +2337,111 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7400</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E46" s="3">
         <v>19900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>17600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>300</v>
       </c>
       <c r="P46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,38 +2487,41 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>200</v>
+      </c>
+      <c r="E48" s="3">
         <v>500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2423,44 +2531,47 @@
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E49" s="3">
         <v>31300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>31700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>32100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>32500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>32900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>33300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,38 +2687,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E54" s="3">
         <v>52400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>51300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>49800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>50700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>51000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>53500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>200</v>
-      </c>
-      <c r="N54" s="3">
-        <v>300</v>
       </c>
       <c r="O54" s="3">
         <v>300</v>
       </c>
       <c r="P54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,40 +2879,41 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E57" s="3">
         <v>5200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
+      <c r="M57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2805,164 +2939,173 @@
         <v>900</v>
       </c>
       <c r="E58" s="3">
+        <v>900</v>
+      </c>
+      <c r="F58" s="3">
         <v>8000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>19800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>24200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>22400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>20900</v>
-      </c>
-      <c r="J58" s="3">
-        <v>6200</v>
       </c>
       <c r="K58" s="3">
         <v>6200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="L58" s="3">
+        <v>6200</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E59" s="3">
         <v>48900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>43400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>2500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E60" s="3">
         <v>55100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>54600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>31800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>38200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>32900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>33000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>13800</v>
       </c>
       <c r="K60" s="3">
         <v>13800</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="L60" s="3">
+        <v>13800</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>2900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E61" s="3">
         <v>30100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>23700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>18100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>17600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2984,25 +3127,28 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>600</v>
       </c>
       <c r="I62" s="3">
         <v>600</v>
@@ -3013,8 +3159,8 @@
       <c r="K62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
+      <c r="L62" s="3">
+        <v>600</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E66" s="3">
         <v>85300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>79400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>55800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>56800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>51000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>50000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>2900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3344,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>10600</v>
@@ -3356,13 +3524,13 @@
         <v>10600</v>
       </c>
       <c r="J70" s="3">
-        <v>13000</v>
+        <v>10600</v>
       </c>
       <c r="K70" s="3">
         <v>13000</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-249100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-273900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-260600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-230900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-229200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-210800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-201300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-187100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-181000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>-6100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-22800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-33000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-28100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-16600</v>
       </c>
       <c r="G76" s="3">
         <v>-16600</v>
       </c>
       <c r="H76" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="I76" s="3">
         <v>-10700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-7100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-10300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-11000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>-2700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-19400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-1200</v>
       </c>
       <c r="Q76" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-29800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-161500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-18000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3835,31 +4034,31 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
+        <v>400</v>
+      </c>
+      <c r="F83" s="3">
         <v>500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
       </c>
       <c r="H83" s="3">
+        <v>400</v>
+      </c>
+      <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>5</v>
@@ -3870,11 +4069,14 @@
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4117,46 +4334,49 @@
         <v>-2300</v>
       </c>
       <c r="E89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,20 +4394,21 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -4195,13 +4416,13 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,20 +4542,23 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -4336,25 +4566,25 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-20600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1900</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>2700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>21800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>14700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>BTTR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,117 +665,121 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E8" s="3">
         <v>11000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3600</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -788,49 +792,52 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E9" s="3">
         <v>7100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1700</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
+      <c r="P9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -838,49 +845,52 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E10" s="3">
         <v>3900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>4100</v>
       </c>
       <c r="I10" s="3">
         <v>4100</v>
       </c>
       <c r="J10" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1900</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
+      <c r="P10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -888,8 +898,11 @@
       <c r="R10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,58 +1025,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
         <v>-500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>150000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>500</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1096,8 +1119,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>5</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E17" s="3">
         <v>13300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>22400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>165300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>-800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-161200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,208 +1278,221 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>29300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-24800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E21" s="3">
         <v>27400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-11600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-27400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-15600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-13600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-161400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>2200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E23" s="3">
         <v>24800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-29800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-161500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E26" s="3">
         <v>24800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-29800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-161500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E27" s="3">
         <v>24800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-29800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-161500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1730,23 +1791,26 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>15700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-17500</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-29300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>24800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E33" s="3">
         <v>24800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-29800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-161500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E35" s="3">
         <v>24800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-29800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-161500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
-      </c>
-      <c r="O41" s="3">
-        <v>300</v>
       </c>
       <c r="P41" s="3">
         <v>300</v>
       </c>
       <c r="Q41" s="3">
+        <v>300</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,40 +2330,43 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E43" s="3">
         <v>5200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5800</v>
-      </c>
-      <c r="K43" s="3">
-        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
+      <c r="M43" s="3">
+        <v>300</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>5</v>
@@ -2284,49 +2377,52 @@
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E44" s="3">
         <v>5200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1700</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2340,108 +2436,117 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E45" s="3">
         <v>5000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7400</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E46" s="3">
         <v>17900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>17600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>300</v>
       </c>
       <c r="P46" s="3">
         <v>300</v>
       </c>
       <c r="Q46" s="3">
+        <v>300</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2499,32 +2607,32 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
+        <v>200</v>
+      </c>
+      <c r="F48" s="3">
         <v>500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2534,47 +2642,50 @@
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E49" s="3">
         <v>31000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>31300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>31700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>32100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>32500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>32900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>33300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2699,32 +2819,32 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E54" s="3">
         <v>49200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>52400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>51300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>49800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>50700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>51000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>53500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
-      </c>
-      <c r="O54" s="3">
-        <v>300</v>
       </c>
       <c r="P54" s="3">
         <v>300</v>
       </c>
       <c r="Q54" s="3">
+        <v>300</v>
+      </c>
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,43 +3010,44 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
+      <c r="N57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -2930,185 +3061,197 @@
       <c r="R57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E58" s="3">
         <v>900</v>
       </c>
       <c r="F58" s="3">
+        <v>900</v>
+      </c>
+      <c r="G58" s="3">
         <v>8000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>19800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>24200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>22400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>20900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>6200</v>
       </c>
       <c r="L58" s="3">
         <v>6200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="M58" s="3">
+        <v>6200</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
         <v>19300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>48900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>43400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>2500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E60" s="3">
         <v>24900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>55100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>54600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>31800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>38200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>32900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>33000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>13800</v>
       </c>
       <c r="L60" s="3">
         <v>13800</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="M60" s="3">
+        <v>13800</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>2900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E61" s="3">
         <v>9900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>30100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>23700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>18100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>17600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3139,19 +3285,19 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>500</v>
-      </c>
-      <c r="I62" s="3">
-        <v>600</v>
       </c>
       <c r="J62" s="3">
         <v>600</v>
@@ -3162,8 +3308,8 @@
       <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
+      <c r="M62" s="3">
+        <v>600</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E66" s="3">
         <v>34900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>85300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>79400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>55800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>56800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>51000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>50000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>2900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3515,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>10600</v>
@@ -3527,13 +3695,13 @@
         <v>10600</v>
       </c>
       <c r="K70" s="3">
-        <v>13000</v>
+        <v>10600</v>
       </c>
       <c r="L70" s="3">
         <v>13000</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-253800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-249100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-273900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-260600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-230900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-229200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-210800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-201300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-187100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-181000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>-6100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-22800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E76" s="3">
         <v>14300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-33000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-28100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-16600</v>
       </c>
       <c r="H76" s="3">
         <v>-16600</v>
       </c>
       <c r="I76" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="J76" s="3">
         <v>-10700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-7100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-10300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-11000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>-2700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-19400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-1200</v>
       </c>
       <c r="R76" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E81" s="3">
         <v>24800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-29800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-161500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4037,31 +4236,31 @@
         <v>400</v>
       </c>
       <c r="F83" s="3">
+        <v>400</v>
+      </c>
+      <c r="G83" s="3">
         <v>500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
       </c>
       <c r="I83" s="3">
+        <v>400</v>
+      </c>
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>5</v>
@@ -4072,11 +4271,14 @@
       <c r="Q83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2300</v>
+        <v>-3700</v>
       </c>
       <c r="E89" s="3">
         <v>-2300</v>
       </c>
       <c r="F89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-3000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,23 +4615,24 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-100</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -4419,13 +4640,13 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4554,14 +4784,14 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4569,25 +4799,25 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-20600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1900</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>21800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>14700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>BTTR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,134 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13200</v>
+        <v>17000</v>
       </c>
       <c r="E8" s="3">
         <v>11000</v>
       </c>
       <c r="F8" s="3">
+        <v>13200</v>
+      </c>
+      <c r="G8" s="3">
+        <v>11000</v>
+      </c>
+      <c r="H8" s="3">
         <v>10800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>9300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>11100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>9900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>12200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3600</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -795,114 +802,132 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F9" s="3">
         <v>8800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>7100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>6600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>5900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>6700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>5800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>8100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1700</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F10" s="3">
         <v>4400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>3900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>4200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>3400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>4400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>4100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1900</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +947,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,61 +1061,73 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>600</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-2600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>150000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>500</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1122,11 +1167,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>5</v>
@@ -1134,8 +1179,14 @@
       <c r="S15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1203,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F17" s="3">
         <v>17200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>13300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>16400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>12300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>14500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>22400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>20800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>16700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>11000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>165300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>-800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-12500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-8600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-12700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-7100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-161200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1344,128 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>29300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-6500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-24800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>4200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>27400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-11600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-27400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-15600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-6700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-13600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-6000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-161400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>-1200</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,128 +1473,140 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>2200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>2000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>24800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-12900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-29800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-18400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-9500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-14200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-6000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-161500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1544,8 +1635,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>24800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-12900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-29800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-18400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-9500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-14200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-6000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-161500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>24800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-13300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-29800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-18400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-9500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-14200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-6100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-161500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,31 +1871,37 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1794,23 +1915,29 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>15700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2048,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-29300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>6500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>24800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-4200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>24800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-13300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-29800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-18400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-9500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-14200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-6100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-161500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>16700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>24800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-13300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-29800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-18400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-9500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-14200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-6100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-161500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>16700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2398,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>21700</v>
+      </c>
+      <c r="F41" s="3">
         <v>26000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>5000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,102 +2512,114 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F43" s="3">
         <v>7500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>6700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>4600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>5600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>4200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>6100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>5800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3400</v>
+        <v>8300</v>
       </c>
       <c r="E44" s="3">
         <v>5200</v>
       </c>
       <c r="F44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H44" s="3">
         <v>4600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>4900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>5100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>5400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>4800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>6600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1700</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2439,114 +2630,132 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F45" s="3">
         <v>10900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>4100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>8200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>7400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>43900</v>
+      </c>
+      <c r="F46" s="3">
         <v>47900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>17900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>19900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>17600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>14800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>16400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>15800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>17600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>13600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>14400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,100 +2807,112 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>400</v>
+      </c>
+      <c r="F48" s="3">
         <v>200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>30200</v>
+      </c>
+      <c r="F49" s="3">
         <v>30600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>31000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>31300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>31700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>32100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>32500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>32900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>33300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2704,8 +2925,14 @@
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3043,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2822,35 +3061,35 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2863,8 +3102,14 @@
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3161,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>74700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>74700</v>
+      </c>
+      <c r="F54" s="3">
         <v>78900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>49200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>52400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>51300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>49800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>50700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>51000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>53500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>17200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>16500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>100</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,49 +3270,51 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F57" s="3">
         <v>4000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>4200</v>
       </c>
       <c r="K57" s="3">
         <v>4000</v>
       </c>
       <c r="L57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>100</v>
+      <c r="P57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -3064,200 +3325,224 @@
       <c r="S57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
         <v>900</v>
       </c>
       <c r="F58" s="3">
+        <v>800</v>
+      </c>
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
+        <v>900</v>
+      </c>
+      <c r="I58" s="3">
         <v>8000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>19800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>24200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>22400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>20900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>6200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>6200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>19300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>48900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>43400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>10000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>8100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>5100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>2500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>19600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F60" s="3">
         <v>6500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>24900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>55100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>54600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>31800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>38200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>32900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>33000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>13800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>13800</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>19700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F61" s="3">
         <v>9600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>9900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>30100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>24600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>23700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>18100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>17600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>16400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3276,8 +3561,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3288,22 +3579,22 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
-      </c>
-      <c r="J62" s="3">
-        <v>600</v>
-      </c>
-      <c r="K62" s="3">
-        <v>600</v>
       </c>
       <c r="L62" s="3">
         <v>600</v>
@@ -3311,11 +3602,11 @@
       <c r="M62" s="3">
         <v>600</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
+      <c r="N62" s="3">
+        <v>600</v>
+      </c>
+      <c r="O62" s="3">
+        <v>600</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>5</v>
@@ -3329,8 +3620,14 @@
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F66" s="3">
         <v>16100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>34900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>85300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>79400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>55800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>56800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>51000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>50000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>14500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>14400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>19700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3686,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>10600</v>
@@ -3698,17 +4033,17 @@
         <v>10600</v>
       </c>
       <c r="L70" s="3">
+        <v>10600</v>
+      </c>
+      <c r="M70" s="3">
+        <v>10600</v>
+      </c>
+      <c r="N70" s="3">
         <v>13000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>13000</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-263300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-259300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-253800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-249100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-273900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-260600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-230900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-229200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-210800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-201300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-187100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-181000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-6100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-22800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-4200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-3200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>57900</v>
+      </c>
+      <c r="F76" s="3">
         <v>62700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>14300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-33000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-28100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-16600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-16600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-10700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-7100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-10300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-11000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-2700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>24800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-13300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-29800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-18400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-9500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-14200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-6100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-161500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>16700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4619,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4239,34 +4636,34 @@
         <v>400</v>
       </c>
       <c r="G83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
       </c>
       <c r="I83" s="3">
+        <v>500</v>
+      </c>
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
+        <v>400</v>
+      </c>
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>5</v>
@@ -4274,11 +4671,17 @@
       <c r="R83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4969,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-7700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-7100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,43 +5055,45 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
@@ -4669,8 +5110,14 @@
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,19 +5228,25 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
@@ -4796,40 +5255,46 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-20600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>1900</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5546,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F100" s="3">
         <v>34400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>5000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>21800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>4000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>14700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5664,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F102" s="3">
         <v>30700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-6500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>9400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>BTTR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,137 +665,141 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43343</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43251</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43159</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43069</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E8" s="3">
         <v>17000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3600</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -808,58 +812,61 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E9" s="3">
         <v>12300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1700</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
@@ -867,8 +874,11 @@
       <c r="U9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,49 +886,49 @@
         <v>4700</v>
       </c>
       <c r="E10" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F10" s="3">
         <v>2800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4400</v>
-      </c>
-      <c r="K10" s="3">
-        <v>4100</v>
       </c>
       <c r="L10" s="3">
         <v>4100</v>
       </c>
       <c r="M10" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N10" s="3">
         <v>1500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1900</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T10" s="3">
         <v>0</v>
@@ -926,8 +936,11 @@
       <c r="U10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1076,58 +1096,61 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-2600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>150000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>500</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1173,8 +1196,8 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>5</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>20800</v>
       </c>
       <c r="E17" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F17" s="3">
         <v>16000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>165300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>-800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
-      </c>
-      <c r="T17" s="3">
-        <v>100</v>
       </c>
       <c r="U17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>-4300</v>
       </c>
       <c r="E18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-161200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-100</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>29300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-24800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>-3800</v>
       </c>
       <c r="E21" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>27400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-27400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-15600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-13600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-161400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>-1200</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1479,122 +1519,128 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>2200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
+      <c r="D23" s="3">
+        <v>-4400</v>
       </c>
       <c r="E23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>24800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-29800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-161500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>5</v>
@@ -1608,8 +1654,8 @@
       <c r="J24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>-4400</v>
       </c>
       <c r="E26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>24800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-29800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-161500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>-4400</v>
       </c>
       <c r="E27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>24800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-29800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-161500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1903,8 +1964,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1921,23 +1982,26 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>15700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-17500</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-29300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>24800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>-4400</v>
       </c>
       <c r="E33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>24800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-29800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-161500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>16700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-18000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>-4400</v>
       </c>
       <c r="E35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>24800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-29800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-161500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>16700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-18000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43343</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43251</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43159</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43069</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E41" s="3">
         <v>16500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>26000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
-      </c>
-      <c r="R41" s="3">
-        <v>300</v>
       </c>
       <c r="S41" s="3">
         <v>300</v>
       </c>
       <c r="T41" s="3">
+        <v>300</v>
+      </c>
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,49 +2608,52 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E43" s="3">
         <v>9700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5800</v>
-      </c>
-      <c r="N43" s="3">
-        <v>300</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
+      <c r="P43" s="3">
+        <v>300</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>5</v>
@@ -2571,58 +2664,61 @@
       <c r="S43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E44" s="3">
         <v>8300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1700</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2636,126 +2732,135 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E45" s="3">
         <v>9800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7400</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E46" s="3">
         <v>44300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>43900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>47900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>17900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>14800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14400</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
-      </c>
-      <c r="R46" s="3">
-        <v>300</v>
       </c>
       <c r="S46" s="3">
         <v>300</v>
       </c>
       <c r="T46" s="3">
+        <v>300</v>
+      </c>
+      <c r="U46" s="3">
         <v>100</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2822,41 +2930,41 @@
         <v>500</v>
       </c>
       <c r="E48" s="3">
+        <v>500</v>
+      </c>
+      <c r="F48" s="3">
         <v>400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
       </c>
       <c r="H48" s="3">
+        <v>200</v>
+      </c>
+      <c r="I48" s="3">
         <v>500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>900</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2866,56 +2974,59 @@
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E49" s="3">
         <v>29800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>30200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>30600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>31000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>31300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>31700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>32100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>32500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>32900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>33300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3067,32 +3187,32 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="E54" s="3">
         <v>74700</v>
       </c>
       <c r="F54" s="3">
+        <v>74700</v>
+      </c>
+      <c r="G54" s="3">
         <v>78900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>49200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>52400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>51300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>49800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>50700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>51000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>53500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
-      </c>
-      <c r="R54" s="3">
-        <v>300</v>
       </c>
       <c r="S54" s="3">
         <v>300</v>
       </c>
       <c r="T54" s="3">
+        <v>300</v>
+      </c>
+      <c r="U54" s="3">
         <v>100</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,52 +3402,53 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>100</v>
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3331,221 +3462,233 @@
       <c r="U57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>900</v>
       </c>
       <c r="H58" s="3">
         <v>900</v>
       </c>
       <c r="I58" s="3">
+        <v>900</v>
+      </c>
+      <c r="J58" s="3">
         <v>8000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>19800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>24200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>22400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>20900</v>
-      </c>
-      <c r="N58" s="3">
-        <v>6200</v>
       </c>
       <c r="O58" s="3">
         <v>6200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="P58" s="3">
+        <v>6200</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>48900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>43400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>2500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>19600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E60" s="3">
         <v>8200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>24900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>55100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>54600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>31800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>38200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>32900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>33000</v>
-      </c>
-      <c r="N60" s="3">
-        <v>13800</v>
       </c>
       <c r="O60" s="3">
         <v>13800</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="P60" s="3">
+        <v>13800</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>2900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E61" s="3">
         <v>11600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>30100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>23700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3585,19 +3731,19 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
-      </c>
-      <c r="L62" s="3">
-        <v>600</v>
       </c>
       <c r="M62" s="3">
         <v>600</v>
@@ -3608,8 +3754,8 @@
       <c r="O62" s="3">
         <v>600</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
+      <c r="P62" s="3">
+        <v>600</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>5</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E66" s="3">
         <v>19800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>85300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>79400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>55800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>56800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>51000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>50000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>2900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4027,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>10600</v>
@@ -4039,13 +4207,13 @@
         <v>10600</v>
       </c>
       <c r="N70" s="3">
-        <v>13000</v>
+        <v>10600</v>
       </c>
       <c r="O70" s="3">
         <v>13000</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-267700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-263300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-259300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-253800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-249100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-273900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-260600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-230900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-229200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-210800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-201300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-187100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-181000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>-6100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-22800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E76" s="3">
         <v>54900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>57900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>62700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-33000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-28100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-16600</v>
       </c>
       <c r="K76" s="3">
         <v>-16600</v>
       </c>
       <c r="L76" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="M76" s="3">
         <v>-10700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-7100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-10300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-11000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>-2700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-19400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-1200</v>
       </c>
       <c r="U76" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43343</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43251</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43159</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43069</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>-4400</v>
       </c>
       <c r="E81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>24800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-29800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-161500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>16700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-18000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4642,31 +4841,31 @@
         <v>400</v>
       </c>
       <c r="I83" s="3">
+        <v>400</v>
+      </c>
+      <c r="J83" s="3">
         <v>500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>400</v>
       </c>
       <c r="L83" s="3">
+        <v>400</v>
+      </c>
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>5</v>
@@ -4677,11 +4876,14 @@
       <c r="T83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3700</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-2300</v>
       </c>
       <c r="H89" s="3">
         <v>-2300</v>
       </c>
       <c r="I89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-3000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,32 +5277,33 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -5090,13 +5311,13 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,32 +5461,35 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-200</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5267,25 +5497,25 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-20600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1900</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>2300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>34400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>21800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>14700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-800</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>30700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>BTTR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,148 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43343</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43251</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43159</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43069</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E8" s="3">
         <v>16500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3600</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
@@ -815,61 +819,64 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E9" s="3">
         <v>11800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1700</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
+      <c r="T9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
@@ -877,61 +884,64 @@
       <c r="V9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>4700</v>
+        <v>4200</v>
       </c>
       <c r="E10" s="3">
         <v>4700</v>
       </c>
       <c r="F10" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G10" s="3">
         <v>2800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4400</v>
-      </c>
-      <c r="L10" s="3">
-        <v>4100</v>
       </c>
       <c r="M10" s="3">
         <v>4100</v>
       </c>
       <c r="N10" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O10" s="3">
         <v>1500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1900</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
+      <c r="T10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U10" s="3">
         <v>0</v>
@@ -939,8 +949,11 @@
       <c r="V10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1099,58 +1119,61 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-2600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>150000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>500</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1199,8 +1222,8 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>5</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
         <v>20800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>165300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>-800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
-      </c>
-      <c r="U17" s="3">
-        <v>100</v>
       </c>
       <c r="V17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-161200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-100</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,13 +1413,14 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1395,117 +1429,123 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>29300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-24800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>27400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-27400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-15600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-13600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-161400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2700</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>-1200</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1522,119 +1562,125 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>2200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>24800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-29800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-14200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-161500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1642,8 +1688,8 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
@@ -1657,8 +1703,8 @@
       <c r="K24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>24800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-29800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-161500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>24800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-29800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-161500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1967,8 +2028,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -1985,23 +2046,26 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>15700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-17500</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,13 +2191,16 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2139,117 +2209,123 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-29300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>24800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>24800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-29800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-161500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-18000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>24800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-29800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-161500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-18000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43343</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43251</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43159</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43069</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E41" s="3">
         <v>10900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>26000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
-      </c>
-      <c r="S41" s="3">
-        <v>300</v>
       </c>
       <c r="T41" s="3">
         <v>300</v>
       </c>
       <c r="U41" s="3">
+        <v>300</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,52 +2701,55 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E43" s="3">
         <v>8700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5800</v>
-      </c>
-      <c r="O43" s="3">
-        <v>300</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
+      <c r="Q43" s="3">
+        <v>300</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>5</v>
@@ -2667,61 +2760,64 @@
       <c r="T43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E44" s="3">
         <v>10500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>8300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1700</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2735,132 +2831,141 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E45" s="3">
         <v>9900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7400</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E46" s="3">
         <v>40000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>44300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>43900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>47900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>19900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14400</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
-      </c>
-      <c r="S46" s="3">
-        <v>300</v>
       </c>
       <c r="T46" s="3">
         <v>300</v>
       </c>
       <c r="U46" s="3">
+        <v>300</v>
+      </c>
+      <c r="V46" s="3">
         <v>100</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,53 +3026,56 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
       </c>
       <c r="F48" s="3">
+        <v>500</v>
+      </c>
+      <c r="G48" s="3">
         <v>400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
       </c>
       <c r="I48" s="3">
+        <v>200</v>
+      </c>
+      <c r="J48" s="3">
         <v>500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>900</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2977,59 +3085,62 @@
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E49" s="3">
         <v>29400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>29800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>30200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>30600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>31000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>31300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>31700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>32100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>32500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>32900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>33300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1000</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3190,32 +3310,32 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
+        <v>100</v>
+      </c>
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>200</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E54" s="3">
         <v>70000</v>
-      </c>
-      <c r="E54" s="3">
-        <v>74700</v>
       </c>
       <c r="F54" s="3">
         <v>74700</v>
       </c>
       <c r="G54" s="3">
+        <v>74700</v>
+      </c>
+      <c r="H54" s="3">
         <v>78900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>49200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>52400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>51300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>49800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>50700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>51000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>53500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
-      </c>
-      <c r="S54" s="3">
-        <v>300</v>
       </c>
       <c r="T54" s="3">
         <v>300</v>
       </c>
       <c r="U54" s="3">
+        <v>300</v>
+      </c>
+      <c r="V54" s="3">
         <v>100</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,55 +3533,56 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
         <v>4000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2500</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
-        <v>100</v>
+      <c r="R57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -3465,233 +3596,245 @@
       <c r="V57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>900</v>
       </c>
       <c r="I58" s="3">
         <v>900</v>
       </c>
       <c r="J58" s="3">
+        <v>900</v>
+      </c>
+      <c r="K58" s="3">
         <v>8000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>19800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>24200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>22400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>20900</v>
-      </c>
-      <c r="O58" s="3">
-        <v>6200</v>
       </c>
       <c r="P58" s="3">
         <v>6200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="Q58" s="3">
+        <v>6200</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>48900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>43400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>2500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>19600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E60" s="3">
         <v>7400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>24900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>55100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>54600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>31800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>38200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>32900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>33000</v>
-      </c>
-      <c r="O60" s="3">
-        <v>13800</v>
       </c>
       <c r="P60" s="3">
         <v>13800</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="Q60" s="3">
+        <v>13800</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>2900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E61" s="3">
         <v>11200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>11600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>30100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3713,13 +3856,16 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -3734,19 +3880,19 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>500</v>
-      </c>
-      <c r="M62" s="3">
-        <v>600</v>
       </c>
       <c r="N62" s="3">
         <v>600</v>
@@ -3757,8 +3903,8 @@
       <c r="P62" s="3">
         <v>600</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
+      <c r="Q62" s="3">
+        <v>600</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E66" s="3">
         <v>18600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>34900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>85300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>79400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>55800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>56800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>51000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>50000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14400</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>2900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4198,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>10600</v>
@@ -4210,13 +4378,13 @@
         <v>10600</v>
       </c>
       <c r="O70" s="3">
-        <v>13000</v>
+        <v>10600</v>
       </c>
       <c r="P70" s="3">
         <v>13000</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>274200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-267700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-263300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-259300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-253800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-249100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-273900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-260600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-230900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-229200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-210800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-201300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-187100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-181000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>-6100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-22800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E76" s="3">
         <v>51400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>54900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>57900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>62700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-33000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-28100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-16600</v>
       </c>
       <c r="L76" s="3">
         <v>-16600</v>
       </c>
       <c r="M76" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="N76" s="3">
         <v>-10700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-7100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-10300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>-2700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-19400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-1200</v>
       </c>
       <c r="V76" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43343</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43251</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43159</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43069</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>24800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-29800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-161500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-18000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4844,31 +5043,31 @@
         <v>400</v>
       </c>
       <c r="J83" s="3">
+        <v>400</v>
+      </c>
+      <c r="K83" s="3">
         <v>500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>400</v>
       </c>
       <c r="L83" s="3">
         <v>400</v>
       </c>
       <c r="M83" s="3">
+        <v>400</v>
+      </c>
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>5</v>
@@ -4879,11 +5078,14 @@
       <c r="U83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3700</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-2300</v>
       </c>
       <c r="I89" s="3">
         <v>-2300</v>
       </c>
       <c r="J89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-3000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5287,26 +5508,26 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -5314,13 +5535,13 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5473,26 +5703,26 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5500,25 +5730,25 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-20600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1900</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5807,61 +6053,64 @@
         <v>-200</v>
       </c>
       <c r="E100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F100" s="3">
         <v>2300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>34400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>21800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>14700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-800</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>30700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>9400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>BTTR</t>
   </si>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="J14" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1264,8 +1264,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>18300</v>
       </c>
       <c r="E17" s="3">
         <v>20800</v>
@@ -1329,8 +1329,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>-6400</v>
       </c>
       <c r="E18" s="3">
         <v>-4300</v>
@@ -1419,8 +1419,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1484,8 +1484,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>-6000</v>
       </c>
       <c r="E21" s="3">
         <v>-3800</v>
@@ -1614,8 +1614,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
+      <c r="D23" s="3">
+        <v>-6500</v>
       </c>
       <c r="E23" s="3">
         <v>-4400</v>
@@ -1679,8 +1679,8 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1809,8 +1809,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>-6500</v>
       </c>
       <c r="E26" s="3">
         <v>-4400</v>
@@ -1874,8 +1874,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>-6500</v>
       </c>
       <c r="E27" s="3">
         <v>-4400</v>
@@ -2199,8 +2199,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2264,8 +2264,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>-6500</v>
       </c>
       <c r="E33" s="3">
         <v>-4400</v>
@@ -2394,8 +2394,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>-6500</v>
       </c>
       <c r="E35" s="3">
         <v>-4400</v>
@@ -4475,7 +4475,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>274200</v>
+        <v>-274200</v>
       </c>
       <c r="E72" s="3">
         <v>-267700</v>
@@ -4934,8 +4934,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>-6500</v>
       </c>
       <c r="E81" s="3">
         <v>-4400</v>

--- a/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>BTTR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,161 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43343</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43251</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43159</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43069</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F8" s="3">
         <v>11900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>16500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>17000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>11000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>13200</v>
       </c>
       <c r="I8" s="3">
         <v>11000</v>
       </c>
       <c r="J8" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K8" s="3">
+        <v>11000</v>
+      </c>
+      <c r="L8" s="3">
         <v>10800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>9300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>11100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>9900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>12200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3600</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
@@ -822,138 +829,156 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F9" s="3">
         <v>7700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>11800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>12300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>8200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>8800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>7100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>6600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>5900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>6700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>5800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>8100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1700</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F10" s="3">
         <v>4200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>4700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>4700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>4400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>3900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>4400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>4100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>4100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1900</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1002,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1069,14 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,16 +1140,22 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>18600</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1128,52 +1167,58 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>150000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-1000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>500</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1225,11 +1270,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>5</v>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>5</v>
@@ -1237,8 +1282,14 @@
       <c r="W15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1310,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>33400</v>
+      </c>
+      <c r="F17" s="3">
         <v>18300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>20800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>21000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>16000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>17200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>13300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>16400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>12300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>14500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>22400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>20800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>16700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>11000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>165300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>6300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>-800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-4300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-5000</v>
       </c>
       <c r="H18" s="3">
         <v>-4000</v>
       </c>
       <c r="I18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-12500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-8600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-12700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-161200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1479,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1432,128 +1499,140 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>29300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-6500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-24800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>4200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-3400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-6000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-3800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-4600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>27400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-11600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-27400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-15600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-6700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-13600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-161400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-2700</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>-1200</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1565,117 +1644,129 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>2200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>2400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>2300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-5000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>24800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-12900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-29800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-18400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-9500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-14200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-161500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,11 +1782,11 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>5</v>
@@ -1706,11 +1797,11 @@
       <c r="L24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1739,8 +1830,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1901,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-5100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>24800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-12900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-29800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-18400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-9500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-14200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-161500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-5100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>24800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-13300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-29800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-18400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-9500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-14200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-161500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2114,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2031,11 +2152,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -2049,23 +2170,29 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>15700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-17500</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2256,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2327,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2212,120 +2351,132 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-29300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>6500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>24800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-4200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>3400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-5100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>24800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-13300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-29800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-18400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-9500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-14200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-161500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>16700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-18000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2540,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-5100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>24800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-13300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-29800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-18400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-9500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-14200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-161500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>16700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-18000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43343</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43251</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43159</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43069</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2718,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2745,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F41" s="3">
         <v>5700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>10900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>16500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>21700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>26000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>5000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,126 +2883,138 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F43" s="3">
         <v>9600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>8700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>9700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>6800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>7500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>5200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>6700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>4600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>5600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>4200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>6100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>5800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F44" s="3">
         <v>11600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>10500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>8300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H44" s="3">
-        <v>3400</v>
       </c>
       <c r="I44" s="3">
         <v>5200</v>
       </c>
       <c r="J44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K44" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L44" s="3">
         <v>4600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>4900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>5100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>5400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>4800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>6600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1700</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -2834,138 +3025,156 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F45" s="3">
         <v>8100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>9900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>9800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>10200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>10900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>5000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>4300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>4100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>3100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>8200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>7400</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>27500</v>
+      </c>
+      <c r="F46" s="3">
         <v>34900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>40000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>44300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>43900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>47900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>17900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>19900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>17600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>14800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>16400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>15800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>17600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>13600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>14400</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>100</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,124 +3238,136 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
       </c>
       <c r="F48" s="3">
+        <v>600</v>
+      </c>
+      <c r="G48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
+        <v>500</v>
+      </c>
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>900</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
-      </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F49" s="3">
         <v>29100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>29400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>29800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>30200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>30600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>31000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>31300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>31700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>32100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>32500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>32900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>33300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3159,8 +3380,14 @@
       <c r="W49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3451,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,16 +3522,22 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -3313,35 +3552,35 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
+        <v>100</v>
+      </c>
+      <c r="K52" s="3">
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3354,8 +3593,14 @@
       <c r="W52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3664,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>38700</v>
+      </c>
+      <c r="F54" s="3">
         <v>64700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>70000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>74700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>74700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>78900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>49200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>52400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>51300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>49800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>50700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>51000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>53500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>17200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>16500</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>100</v>
       </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3766,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,61 +3793,63 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F57" s="3">
         <v>3900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>4000</v>
-      </c>
-      <c r="N57" s="3">
-        <v>4200</v>
       </c>
       <c r="O57" s="3">
         <v>4000</v>
       </c>
       <c r="P57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="R57" s="3">
         <v>2000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2500</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
-        <v>100</v>
-      </c>
-      <c r="T57" s="3">
-        <v>100</v>
+      <c r="T57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
@@ -3599,248 +3860,272 @@
       <c r="W57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>800</v>
       </c>
       <c r="I58" s="3">
         <v>900</v>
       </c>
       <c r="J58" s="3">
+        <v>800</v>
+      </c>
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
+        <v>900</v>
+      </c>
+      <c r="M58" s="3">
         <v>8000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>19800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>24200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>22400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>20900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>6200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>6200</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>19300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>48900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>43400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>7900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>10000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>6300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>8100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>5600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>5100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>2500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>19600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F60" s="3">
         <v>8900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>6500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>24900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>55100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>54600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>31800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>38200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>32900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>33000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>13800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>13800</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>2900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>19700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F61" s="3">
         <v>10200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>11200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>11600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>9400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>9600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>9900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>30100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>24600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>23700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>18100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>17600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>16400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3859,20 +4144,26 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
@@ -3883,22 +4174,22 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>500</v>
-      </c>
-      <c r="N62" s="3">
-        <v>600</v>
-      </c>
-      <c r="O62" s="3">
-        <v>600</v>
       </c>
       <c r="P62" s="3">
         <v>600</v>
@@ -3906,11 +4197,11 @@
       <c r="Q62" s="3">
         <v>600</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
+      <c r="R62" s="3">
+        <v>600</v>
+      </c>
+      <c r="S62" s="3">
+        <v>600</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>5</v>
@@ -3924,8 +4215,14 @@
       <c r="W62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4286,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4357,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4428,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F66" s="3">
         <v>19300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>18600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>19800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>16800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>16100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>34900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>85300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>79400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>55800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>56800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>51000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>50000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>14500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>14400</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>2900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>19700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4530,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4597,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4668,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4369,10 +4704,10 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>10600</v>
@@ -4381,17 +4716,17 @@
         <v>10600</v>
       </c>
       <c r="P70" s="3">
+        <v>10600</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>10600</v>
+      </c>
+      <c r="R70" s="3">
         <v>13000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>13000</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4739,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4810,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-302100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-298600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-274200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-267700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-263300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-259300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-253800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-249100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-273900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-260600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-230900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-229200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-210800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-201300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-187100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-181000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>-6100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-22800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-4200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-3200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4952,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5023,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5094,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F76" s="3">
         <v>45400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>51400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>54900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>57900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>62700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>14300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-33000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-28100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-16600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-16600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-10700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-7100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-11000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>-2700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-19400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5236,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43343</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43251</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43159</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43069</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-5100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>24800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-13300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-29800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-18400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-9500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-14200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-161500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>16700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-18000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5414,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5046,34 +5443,34 @@
         <v>400</v>
       </c>
       <c r="K83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L83" s="3">
         <v>400</v>
       </c>
       <c r="M83" s="3">
+        <v>500</v>
+      </c>
+      <c r="N83" s="3">
         <v>400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
+        <v>400</v>
+      </c>
+      <c r="P83" s="3">
         <v>500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>5</v>
@@ -5081,11 +5478,17 @@
       <c r="V83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5552,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5623,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5694,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5765,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5836,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-5000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-5300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-7700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-7700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-7100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5938,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5511,43 +5952,43 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>5</v>
@@ -5564,8 +6005,14 @@
       <c r="W91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6076,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +6147,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5706,19 +6165,19 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
@@ -5727,40 +6186,46 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-20600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>1900</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6249,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6316,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6387,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6458,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6529,85 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>34400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>5000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>21800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>4000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>14700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-800</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6671,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-5200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-5600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-5500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-4300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>30700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-6500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>9400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-2100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>BTTR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,164 +665,168 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43343</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43251</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43159</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43069</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E8" s="3">
         <v>9200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3600</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
@@ -835,70 +839,73 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E9" s="3">
         <v>6000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1700</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
+      <c r="W9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X9" s="3">
         <v>0</v>
@@ -906,70 +913,73 @@
       <c r="Y9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E10" s="3">
         <v>3200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>4700</v>
       </c>
       <c r="H10" s="3">
         <v>4700</v>
       </c>
       <c r="I10" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J10" s="3">
         <v>2800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4400</v>
-      </c>
-      <c r="O10" s="3">
-        <v>4100</v>
       </c>
       <c r="P10" s="3">
         <v>4100</v>
       </c>
       <c r="Q10" s="3">
+        <v>4100</v>
+      </c>
+      <c r="R10" s="3">
         <v>1500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1900</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
+      <c r="W10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X10" s="3">
         <v>0</v>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,20 +1163,23 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
         <v>18600</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1173,52 +1193,55 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-2600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>150000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-1000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>500</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1276,8 +1299,8 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>5</v>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>5</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E17" s="3">
         <v>12500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>33400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>165300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>-800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
-      </c>
-      <c r="X17" s="3">
-        <v>100</v>
       </c>
       <c r="Y17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-24100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-12500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-12700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-161200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-100</v>
       </c>
       <c r="Y18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1505,137 +1539,143 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>29300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-24800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>1400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-23700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>27400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-27400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-15600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-13600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-6000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-161400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2700</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>-1200</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1650,123 +1690,129 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>2200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>500</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
       </c>
       <c r="U22" s="3">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
         <v>200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-24400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>24800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-29800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-14200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-161500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,8 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>5</v>
@@ -1803,8 +1849,8 @@
       <c r="N24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-24400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>24800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-29800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-18400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-14200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-161500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-24400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>24800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-29800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-14200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-161500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2158,8 +2219,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2176,23 +2237,26 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>15700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-17500</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
+      <c r="X29" s="3">
+        <v>0</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2357,126 +2427,132 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-29300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>24800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-1400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-24400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>24800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-29800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-14200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-161500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>16700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-18000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-24400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>24800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-29800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-14200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-161500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>16700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-18000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43343</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43251</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43159</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43069</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>26000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5000</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>200</v>
-      </c>
-      <c r="V41" s="3">
-        <v>300</v>
       </c>
       <c r="W41" s="3">
         <v>300</v>
       </c>
       <c r="X41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,61 +2979,64 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E43" s="3">
         <v>6300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5800</v>
-      </c>
-      <c r="R43" s="3">
-        <v>300</v>
       </c>
       <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
+      <c r="T43" s="3">
+        <v>300</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>5</v>
@@ -2954,70 +3047,73 @@
       <c r="W43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
+      <c r="X43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E44" s="3">
         <v>8900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>10300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>11600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1700</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="U44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -3031,150 +3127,159 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>7300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7400</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E46" s="3">
         <v>24200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>27500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>34900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>40000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>44300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>43900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>47900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>14400</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
-      </c>
-      <c r="V46" s="3">
-        <v>300</v>
       </c>
       <c r="W46" s="3">
         <v>300</v>
       </c>
       <c r="X46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y46" s="3">
         <v>100</v>
       </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,62 +3349,65 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
       </c>
       <c r="F48" s="3">
+        <v>500</v>
+      </c>
+      <c r="G48" s="3">
         <v>600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>500</v>
       </c>
       <c r="H48" s="3">
         <v>500</v>
       </c>
       <c r="I48" s="3">
+        <v>500</v>
+      </c>
+      <c r="J48" s="3">
         <v>400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
       </c>
       <c r="L48" s="3">
+        <v>200</v>
+      </c>
+      <c r="M48" s="3">
         <v>500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>900</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>5</v>
       </c>
@@ -3309,68 +3417,71 @@
       <c r="W48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X48" s="3">
-        <v>0</v>
+      <c r="X48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E49" s="3">
         <v>9700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>29100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>29400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>30200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>30600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>31000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>31300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>31700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>32100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>32500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>32900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>33300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1000</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,19 +3645,22 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -3558,32 +3678,32 @@
         <v>100</v>
       </c>
       <c r="L52" s="3">
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>200</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E54" s="3">
         <v>35100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>38700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>64700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>70000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>74700</v>
       </c>
       <c r="I54" s="3">
         <v>74700</v>
       </c>
       <c r="J54" s="3">
+        <v>74700</v>
+      </c>
+      <c r="K54" s="3">
         <v>78900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>49200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>52400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>51300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>49800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>50700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>51000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>53500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>16500</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>200</v>
-      </c>
-      <c r="V54" s="3">
-        <v>300</v>
       </c>
       <c r="W54" s="3">
         <v>300</v>
       </c>
       <c r="X54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y54" s="3">
         <v>100</v>
       </c>
-      <c r="Y54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,64 +3925,65 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2500</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
-        <v>100</v>
+      <c r="U57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
@@ -3866,269 +3997,281 @@
       <c r="Y57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>1900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>900</v>
       </c>
       <c r="L58" s="3">
         <v>900</v>
       </c>
       <c r="M58" s="3">
+        <v>900</v>
+      </c>
+      <c r="N58" s="3">
         <v>8000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>19800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>24200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>22400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>20900</v>
-      </c>
-      <c r="R58" s="3">
-        <v>6200</v>
       </c>
       <c r="S58" s="3">
         <v>6200</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="T58" s="3">
+        <v>6200</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>48900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>43400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5100</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>2500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>19600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>55100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>54600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>31800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>38200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>32900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>33000</v>
-      </c>
-      <c r="R60" s="3">
-        <v>13800</v>
       </c>
       <c r="S60" s="3">
         <v>13800</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="T60" s="3">
+        <v>13800</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>2900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>19700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E61" s="3">
         <v>11500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>11400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>11200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>11600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>30100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>24600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>18100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4162,11 +4308,11 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
@@ -4180,19 +4326,19 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>500</v>
-      </c>
-      <c r="P62" s="3">
-        <v>600</v>
       </c>
       <c r="Q62" s="3">
         <v>600</v>
@@ -4203,8 +4349,8 @@
       <c r="S62" s="3">
         <v>600</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
+      <c r="T62" s="3">
+        <v>600</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>5</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E66" s="3">
         <v>16200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>85300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>79400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>55800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>56800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>51000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>50000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14400</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>2900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>19700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4710,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>10600</v>
@@ -4722,13 +4890,13 @@
         <v>10600</v>
       </c>
       <c r="R70" s="3">
-        <v>13000</v>
+        <v>10600</v>
       </c>
       <c r="S70" s="3">
         <v>13000</v>
       </c>
       <c r="T70" s="3">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="U70" s="3">
         <v>0</v>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-305000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-302100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-298600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-274200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-267700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-263300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-259300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-253800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-249100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-273900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-260600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-230900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-229200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-210800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-201300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-187100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-181000</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>-6100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-22800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E76" s="3">
         <v>18900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>45400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>51400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>54900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>57900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>62700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-33000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-28100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-16600</v>
       </c>
       <c r="O76" s="3">
         <v>-16600</v>
       </c>
       <c r="P76" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-7100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-10300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-11000</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>-2700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-19400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-1200</v>
       </c>
       <c r="Y76" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43343</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43251</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43159</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43069</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-24400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>24800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-29800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-14200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-161500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>16700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-18000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5449,31 +5648,31 @@
         <v>400</v>
       </c>
       <c r="M83" s="3">
+        <v>400</v>
+      </c>
+      <c r="N83" s="3">
         <v>500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>400</v>
       </c>
       <c r="O83" s="3">
         <v>400</v>
       </c>
       <c r="P83" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q83" s="3">
         <v>500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>5</v>
@@ -5484,11 +5683,14 @@
       <c r="X83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3700</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-2300</v>
       </c>
       <c r="L89" s="3">
         <v>-2300</v>
       </c>
       <c r="M89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="N89" s="3">
         <v>-3000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-7100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5958,26 +6179,26 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
       </c>
       <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -5985,13 +6206,13 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>5</v>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6171,26 +6401,26 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -6198,25 +6428,25 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-20600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1900</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
+      <c r="W94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-4600</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-600</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-200</v>
       </c>
       <c r="G100" s="3">
         <v>-200</v>
       </c>
       <c r="H100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I100" s="3">
         <v>2300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>34400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>21800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>14700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-800</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>30700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>9400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>BTTR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,171 +665,175 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43343</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43251</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43159</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43069</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E8" s="3">
         <v>10500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>17000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3600</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
       <c r="W8" s="3">
         <v>0</v>
       </c>
@@ -842,73 +846,76 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E9" s="3">
         <v>6900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1700</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X9" s="3">
-        <v>0</v>
+      <c r="X9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y9" s="3">
         <v>0</v>
@@ -916,73 +923,76 @@
       <c r="Z9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E10" s="3">
         <v>3600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>4700</v>
       </c>
       <c r="I10" s="3">
         <v>4700</v>
       </c>
       <c r="J10" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K10" s="3">
         <v>2800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4400</v>
-      </c>
-      <c r="P10" s="3">
-        <v>4100</v>
       </c>
       <c r="Q10" s="3">
         <v>4100</v>
       </c>
       <c r="R10" s="3">
+        <v>4100</v>
+      </c>
+      <c r="S10" s="3">
         <v>1500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1900</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
+      <c r="X10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y10" s="3">
         <v>0</v>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1177,12 +1197,12 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
         <v>18600</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1196,52 +1216,55 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-2600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>150000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-1000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>500</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1302,8 +1325,8 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>5</v>
+      <c r="W15" s="3">
+        <v>0</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>5</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
         <v>13100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>33400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>165300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>-800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>600</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>100</v>
       </c>
       <c r="Z17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-24100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-12700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-7100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-161200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-100</v>
       </c>
       <c r="Z18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,13 +1548,14 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1542,143 +1576,149 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>29300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-24800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>1400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-23700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>27400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-27400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-6700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-13600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-6000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-161400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2700</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
       <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1693,126 +1733,132 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>2200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>500</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
       </c>
       <c r="V22" s="3">
+        <v>100</v>
+      </c>
+      <c r="W22" s="3">
         <v>200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-24400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-29800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-14200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-161500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1883,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>5</v>
@@ -1852,8 +1898,8 @@
       <c r="O24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-24400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-29800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-18400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-14200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-161500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-24400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-29800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-14200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-161500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2222,8 +2283,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2240,23 +2301,26 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>15700</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-17500</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
+      <c r="Y29" s="3">
+        <v>0</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,13 +2470,16 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2430,129 +2500,135 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-29300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>24800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-1400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-24400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-29800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-14200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-161500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>16700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-18000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-24400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-29800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-14200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-161500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>16700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-18000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43343</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43251</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43159</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43069</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E41" s="3">
         <v>3600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>26000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5000</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>200</v>
-      </c>
-      <c r="W41" s="3">
-        <v>300</v>
       </c>
       <c r="X41" s="3">
         <v>300</v>
       </c>
       <c r="Y41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z41" s="3">
         <v>100</v>
       </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,64 +3072,67 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E43" s="3">
         <v>5800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5800</v>
-      </c>
-      <c r="S43" s="3">
-        <v>300</v>
       </c>
       <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
+      <c r="U43" s="3">
+        <v>300</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>5</v>
@@ -3050,73 +3143,76 @@
       <c r="X43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E44" s="3">
         <v>8600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>8900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>10300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>11600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>10500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1700</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -3130,156 +3226,165 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7400</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E46" s="3">
         <v>19800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>24200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>27500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>34900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>40000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>44300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>43900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>47900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>14400</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
-      </c>
-      <c r="W46" s="3">
-        <v>300</v>
       </c>
       <c r="X46" s="3">
         <v>300</v>
       </c>
       <c r="Y46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z46" s="3">
         <v>100</v>
       </c>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3361,56 +3469,56 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>500</v>
       </c>
       <c r="G48" s="3">
+        <v>500</v>
+      </c>
+      <c r="H48" s="3">
         <v>600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>500</v>
       </c>
       <c r="I48" s="3">
         <v>500</v>
       </c>
       <c r="J48" s="3">
+        <v>500</v>
+      </c>
+      <c r="K48" s="3">
         <v>400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
       </c>
       <c r="M48" s="3">
+        <v>200</v>
+      </c>
+      <c r="N48" s="3">
         <v>500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>900</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>5</v>
       </c>
@@ -3420,71 +3528,74 @@
       <c r="X48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y48" s="3">
-        <v>0</v>
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E49" s="3">
         <v>9300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>29100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>29800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>30200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>30600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>31000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>31300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>31700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>32100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>32500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>32900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>33300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1000</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,22 +3765,25 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>800</v>
+      </c>
+      <c r="E52" s="3">
         <v>900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -3681,32 +3801,32 @@
         <v>100</v>
       </c>
       <c r="M52" s="3">
+        <v>100</v>
+      </c>
+      <c r="N52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>200</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E54" s="3">
         <v>30400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>35100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>38700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>64700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>70000</v>
-      </c>
-      <c r="I54" s="3">
-        <v>74700</v>
       </c>
       <c r="J54" s="3">
         <v>74700</v>
       </c>
       <c r="K54" s="3">
+        <v>74700</v>
+      </c>
+      <c r="L54" s="3">
         <v>78900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>49200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>52400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>51300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>49800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>50700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>51000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>53500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>16500</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>200</v>
-      </c>
-      <c r="W54" s="3">
-        <v>300</v>
       </c>
       <c r="X54" s="3">
         <v>300</v>
       </c>
       <c r="Y54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z54" s="3">
         <v>100</v>
       </c>
-      <c r="Z54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,67 +4056,68 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E57" s="3">
         <v>4200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2500</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
-        <v>100</v>
+      <c r="V57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
@@ -4000,281 +4131,293 @@
       <c r="Z57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E58" s="3">
         <v>2300</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>1900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
-      </c>
-      <c r="L58" s="3">
-        <v>900</v>
       </c>
       <c r="M58" s="3">
         <v>900</v>
       </c>
       <c r="N58" s="3">
+        <v>900</v>
+      </c>
+      <c r="O58" s="3">
         <v>8000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>19800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>24200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>22400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>20900</v>
-      </c>
-      <c r="S58" s="3">
-        <v>6200</v>
       </c>
       <c r="T58" s="3">
         <v>6200</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="U58" s="3">
+        <v>6200</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E59" s="3">
         <v>5100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>48900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>43400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5100</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>2500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>19600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E60" s="3">
         <v>11500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>55100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>54600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>31800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>38200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>32900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>33000</v>
-      </c>
-      <c r="S60" s="3">
-        <v>13800</v>
       </c>
       <c r="T60" s="3">
         <v>13800</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="U60" s="3">
+        <v>13800</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>2900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>19700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>2600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>11500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>11400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>10200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>11200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>11600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>30100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>24600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>23700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>18100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16400</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4311,11 +4457,11 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
@@ -4329,19 +4475,19 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>500</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>600</v>
       </c>
       <c r="R62" s="3">
         <v>600</v>
@@ -4352,8 +4498,8 @@
       <c r="T62" s="3">
         <v>600</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
+      <c r="U62" s="3">
+        <v>600</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>5</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E66" s="3">
         <v>14200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>85300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>79400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>55800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>56800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>51000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>50000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14400</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>2900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>19700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4881,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>10600</v>
@@ -4893,13 +5061,13 @@
         <v>10600</v>
       </c>
       <c r="S70" s="3">
-        <v>13000</v>
+        <v>10600</v>
       </c>
       <c r="T70" s="3">
         <v>13000</v>
       </c>
       <c r="U70" s="3">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="V70" s="3">
         <v>0</v>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-306600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-305000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-302100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-298600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-274200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-267700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-263300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-259300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-253800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-249100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-273900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-260600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-230900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-229200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-210800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-201300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-187100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-181000</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>-6100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-22800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E76" s="3">
         <v>16200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>45400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>51400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>54900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>57900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>62700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-33000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-28100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-16600</v>
       </c>
       <c r="P76" s="3">
         <v>-16600</v>
       </c>
       <c r="Q76" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="R76" s="3">
         <v>-10700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-7100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-10300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-11000</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>-2700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-19400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>-1200</v>
       </c>
       <c r="Z76" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43343</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43251</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43159</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43069</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-24400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-29800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-14200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-161500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>16700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-18000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,13 +5813,14 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>400</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
@@ -5651,31 +5850,31 @@
         <v>400</v>
       </c>
       <c r="N83" s="3">
+        <v>400</v>
+      </c>
+      <c r="O83" s="3">
         <v>500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>400</v>
       </c>
       <c r="P83" s="3">
         <v>400</v>
       </c>
       <c r="Q83" s="3">
+        <v>400</v>
+      </c>
+      <c r="R83" s="3">
         <v>500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>5</v>
@@ -5686,11 +5885,14 @@
       <c r="Y83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3700</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-2300</v>
       </c>
       <c r="M89" s="3">
         <v>-2300</v>
       </c>
       <c r="N89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O89" s="3">
         <v>-3000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-7100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6182,26 +6403,26 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
       </c>
       <c r="K91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -6209,13 +6430,13 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>5</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6404,26 +6634,26 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -6431,25 +6661,25 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-20600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1900</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="X94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4600</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-600</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-200</v>
       </c>
       <c r="H100" s="3">
         <v>-200</v>
       </c>
       <c r="I100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J100" s="3">
         <v>2300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>34400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>21800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>14700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-800</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>30700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>9400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>
